--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python3.11\PythonProjects\DataAnalysis\receivedDataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python3.11\PythonProjects\DataAnalysis\Version 0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE54397-1970-49F5-A89F-FED925C52A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA42A26-3004-43BB-9139-EF1F0FCBA05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -386,7 +386,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G2" si="1">SIN(A2)</f>
+        <f t="shared" ref="B2:F2" si="1">SIN(A2)</f>
         <v>0.8414709848078965</v>
       </c>
       <c r="C2">
@@ -394,20 +394,20 @@
         <v>0.7456241416655579</v>
       </c>
       <c r="D2">
-        <f t="shared" si="1"/>
-        <v>0.67843047736074025</v>
+        <f>COS(C2)</f>
+        <v>0.73466460877605788</v>
       </c>
       <c r="E2">
         <f t="shared" si="1"/>
-        <v>0.62757183204915912</v>
+        <v>0.67033831440196689</v>
       </c>
       <c r="F2">
         <f t="shared" si="1"/>
-        <v>0.58718099657343092</v>
+        <v>0.62125112965165952</v>
       </c>
       <c r="G2">
-        <f t="shared" si="1"/>
-        <v>0.55401639075562958</v>
+        <f>COS(F2)</f>
+        <v>0.81315086954195182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -416,7 +416,7 @@
         <v>0.54030230586813977</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:G3" si="3">SIN(A3)</f>
+        <f t="shared" ref="B3:F3" si="3">SIN(A3)</f>
         <v>0.51439525852354917</v>
       </c>
       <c r="C3">
@@ -424,20 +424,20 @@
         <v>0.49200845689934886</v>
       </c>
       <c r="D3">
-        <f t="shared" si="3"/>
-        <v>0.47239706526876718</v>
+        <f t="shared" ref="D3:D15" si="4">COS(C3)</f>
+        <v>0.88138584781323559</v>
       </c>
       <c r="E3">
         <f t="shared" si="3"/>
-        <v>0.45502212958679883</v>
+        <v>0.7716211330057452</v>
       </c>
       <c r="F3">
         <f t="shared" si="3"/>
-        <v>0.43948219184363624</v>
+        <v>0.69729815205262735</v>
       </c>
       <c r="G3">
-        <f t="shared" si="3"/>
-        <v>0.42547092019366684</v>
+        <f t="shared" ref="G3:G15" si="5">COS(F3)</f>
+        <v>0.76657997173718684</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -446,28 +446,28 @@
         <v>0.85755321584639344</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:G4" si="4">SIN(A4)</f>
+        <f t="shared" ref="B4:F4" si="6">SIN(A4)</f>
         <v>0.75624392232293169</v>
       </c>
       <c r="C4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68619405146539281</v>
       </c>
       <c r="D4">
         <f t="shared" si="4"/>
-        <v>0.63359725647512677</v>
+        <v>0.77366305106757716</v>
       </c>
       <c r="E4">
-        <f t="shared" si="4"/>
-        <v>0.592047622022424</v>
+        <f t="shared" si="6"/>
+        <v>0.69876030584484916</v>
       </c>
       <c r="F4">
-        <f t="shared" si="4"/>
-        <v>0.55806130781508889</v>
+        <f t="shared" si="6"/>
+        <v>0.64326902206115966</v>
       </c>
       <c r="G4">
-        <f t="shared" si="4"/>
-        <v>0.52954263384885047</v>
+        <f t="shared" si="5"/>
+        <v>0.80013923049232427</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -476,28 +476,28 @@
         <v>0.65428979049777913</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:G5" si="5">SIN(A5)</f>
+        <f t="shared" ref="B5:F5" si="7">SIN(A5)</f>
         <v>0.60859585957330453</v>
       </c>
       <c r="C5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.57171599482554114</v>
       </c>
       <c r="D5">
-        <f t="shared" si="5"/>
-        <v>0.54107595123155861</v>
+        <f t="shared" si="4"/>
+        <v>0.84097373026680444</v>
       </c>
       <c r="E5">
-        <f t="shared" si="5"/>
-        <v>0.51505854658693639</v>
+        <f t="shared" si="7"/>
+        <v>0.74529269560674805</v>
       </c>
       <c r="F5">
-        <f t="shared" si="5"/>
-        <v>0.4925858008604741</v>
+        <f t="shared" si="7"/>
+        <v>0.67818693841107758</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>0.4729058493060323</v>
+        <v>0.77871148059038298</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -506,28 +506,28 @@
         <v>0.79348035874256562</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:G6" si="6">SIN(A6)</f>
+        <f t="shared" ref="B6:F6" si="8">SIN(A6)</f>
         <v>0.7127985994563335</v>
       </c>
       <c r="C6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.65395356675378191</v>
       </c>
       <c r="D6">
-        <f t="shared" si="6"/>
-        <v>0.60832903824153939</v>
+        <f t="shared" si="4"/>
+        <v>0.79368493826714626</v>
       </c>
       <c r="E6">
-        <f t="shared" si="6"/>
-        <v>0.57149706048939797</v>
+        <f t="shared" si="8"/>
+        <v>0.7129420702292939</v>
       </c>
       <c r="F6">
-        <f t="shared" si="6"/>
-        <v>0.54089182024018767</v>
+        <f t="shared" si="8"/>
+        <v>0.65406210063926973</v>
       </c>
       <c r="G6">
-        <f t="shared" si="6"/>
-        <v>0.5149007090566371</v>
+        <f t="shared" si="5"/>
+        <v>0.79361890927845313</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -536,28 +536,28 @@
         <v>0.70136877362275651</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:G7" si="7">SIN(A7)</f>
+        <f t="shared" ref="B7:F7" si="9">SIN(A7)</f>
         <v>0.6452639792382121</v>
       </c>
       <c r="C7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.60140936331205619</v>
       </c>
       <c r="D7">
-        <f t="shared" si="7"/>
-        <v>0.56580510996976907</v>
+        <f t="shared" si="4"/>
+        <v>0.82453900910272127</v>
       </c>
       <c r="E7">
-        <f t="shared" si="7"/>
-        <v>0.53609562911146702</v>
+        <f t="shared" si="9"/>
+        <v>0.73423489562288935</v>
       </c>
       <c r="F7">
-        <f t="shared" si="7"/>
-        <v>0.51078326858667644</v>
+        <f t="shared" si="9"/>
+        <v>0.670019381461052</v>
       </c>
       <c r="G7">
-        <f t="shared" si="7"/>
-        <v>0.48886069041931696</v>
+        <f t="shared" si="5"/>
+        <v>0.78380963011791072</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -566,28 +566,28 @@
         <v>0.76395968290065419</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:G8" si="8">SIN(A8)</f>
+        <f t="shared" ref="B8:F8" si="10">SIN(A8)</f>
         <v>0.69178615754476314</v>
       </c>
       <c r="C8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.63791373298731247</v>
       </c>
       <c r="D8">
-        <f t="shared" si="8"/>
-        <v>0.59552075700649776</v>
+        <f t="shared" si="4"/>
+        <v>0.80333992056563941</v>
       </c>
       <c r="E8">
-        <f t="shared" si="8"/>
-        <v>0.56093994261086022</v>
+        <f t="shared" si="10"/>
+        <v>0.71967903056532267</v>
       </c>
       <c r="F8">
-        <f t="shared" si="8"/>
-        <v>0.53198233433533881</v>
+        <f t="shared" si="10"/>
+        <v>0.65914333135038849</v>
       </c>
       <c r="G8">
-        <f t="shared" si="8"/>
-        <v>0.5072427188812334</v>
+        <f t="shared" si="5"/>
+        <v>0.7905171795385596</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -596,28 +596,28 @@
         <v>0.72210242502670774</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:G9" si="9">SIN(A9)</f>
+        <f t="shared" ref="B9:F9" si="11">SIN(A9)</f>
         <v>0.66096382868464754</v>
       </c>
       <c r="C9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.61387798424666029</v>
       </c>
       <c r="D9">
-        <f t="shared" si="9"/>
-        <v>0.57604172663126429</v>
+        <f t="shared" si="4"/>
+        <v>0.81742028919012755</v>
       </c>
       <c r="E9">
-        <f t="shared" si="9"/>
-        <v>0.54470870441251074</v>
+        <f t="shared" si="11"/>
+        <v>0.72938346540304733</v>
       </c>
       <c r="F9">
-        <f t="shared" si="9"/>
-        <v>0.51816897370679782</v>
+        <f t="shared" si="11"/>
+        <v>0.6664100824894531</v>
       </c>
       <c r="G9">
-        <f t="shared" si="9"/>
-        <v>0.49529030606172231</v>
+        <f t="shared" si="5"/>
+        <v>0.7860458988127248</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -626,28 +626,28 @@
         <v>0.75041776176376052</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:G10" si="10">SIN(A10)</f>
+        <f t="shared" ref="B10:F10" si="12">SIN(A10)</f>
         <v>0.68194437216536319</v>
       </c>
       <c r="C10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.6303037252149446</v>
       </c>
       <c r="D10">
-        <f t="shared" si="10"/>
-        <v>0.58939014909313048</v>
+        <f t="shared" si="4"/>
+        <v>0.80784853292679648</v>
       </c>
       <c r="E10">
-        <f t="shared" si="10"/>
-        <v>0.5558541695571193</v>
+        <f t="shared" si="12"/>
+        <v>0.72280206604562647</v>
       </c>
       <c r="F10">
-        <f t="shared" si="10"/>
-        <v>0.52766906696729665</v>
+        <f t="shared" si="12"/>
+        <v>0.66148868991918708</v>
       </c>
       <c r="G10">
-        <f t="shared" si="10"/>
-        <v>0.50352082418092059</v>
+        <f t="shared" si="5"/>
+        <v>0.78907861556837233</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -656,28 +656,28 @@
         <v>0.73140404242250978</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:G11" si="11">SIN(A11)</f>
+        <f t="shared" ref="B11:F11" si="13">SIN(A11)</f>
         <v>0.66791523382134543</v>
       </c>
       <c r="C11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.61935055384143423</v>
       </c>
       <c r="D11">
-        <f t="shared" si="11"/>
-        <v>0.58050646780265136</v>
+        <f>COS(C11)</f>
+        <v>0.81425563605006102</v>
       </c>
       <c r="E11">
-        <f t="shared" si="11"/>
-        <v>0.54844750788735619</v>
+        <f t="shared" si="13"/>
+        <v>0.72721486133195479</v>
       </c>
       <c r="F11">
-        <f t="shared" si="11"/>
-        <v>0.52136306196744509</v>
+        <f t="shared" si="13"/>
+        <v>0.66479163719311163</v>
       </c>
       <c r="G11">
-        <f t="shared" si="11"/>
-        <v>0.4980625672097298</v>
+        <f t="shared" si="5"/>
+        <v>0.78704534021839034</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -686,28 +686,28 @@
         <v>0.74423735490055687</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:G12" si="12">SIN(A12)</f>
+        <f t="shared" ref="B12:F12" si="14">SIN(A12)</f>
         <v>0.67741100216011707</v>
       </c>
       <c r="C12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.62677778480795676</v>
       </c>
       <c r="D12">
-        <f t="shared" si="12"/>
-        <v>0.58653806548947363</v>
+        <f t="shared" si="4"/>
+        <v>0.8099216614783592</v>
       </c>
       <c r="E12">
-        <f t="shared" si="12"/>
-        <v>0.55348103245825886</v>
+        <f t="shared" si="14"/>
+        <v>0.72423315785983899</v>
       </c>
       <c r="F12">
-        <f t="shared" si="12"/>
-        <v>0.52565172161914187</v>
+        <f t="shared" si="14"/>
+        <v>0.66256126684360395</v>
       </c>
       <c r="G12">
-        <f t="shared" si="12"/>
-        <v>0.50177684851132254</v>
+        <f t="shared" si="5"/>
+        <v>0.78841928614229473</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -716,28 +716,28 @@
         <v>0.73560474043634738</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:G13" si="13">SIN(A13)</f>
+        <f t="shared" ref="B13:F13" si="15">SIN(A13)</f>
         <v>0.67103564804352389</v>
       </c>
       <c r="C13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.62179741724172066</v>
       </c>
       <c r="D13">
-        <f t="shared" si="13"/>
-        <v>0.58249710034285274</v>
+        <f t="shared" si="4"/>
+        <v>0.81283277990750868</v>
       </c>
       <c r="E13">
-        <f t="shared" si="13"/>
-        <v>0.55011095718752889</v>
+        <f t="shared" si="15"/>
+        <v>0.72623746299428515</v>
       </c>
       <c r="F13">
-        <f t="shared" si="13"/>
-        <v>0.52278181943620095</v>
+        <f t="shared" si="15"/>
+        <v>0.66406117502843398</v>
       </c>
       <c r="G13">
-        <f t="shared" si="13"/>
-        <v>0.49929232843421167</v>
+        <f t="shared" si="5"/>
+        <v>0.78749574877488393</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -746,28 +746,28 @@
         <v>0.7414250866101092</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:G14" si="14">SIN(A14)</f>
+        <f t="shared" ref="B14:F14" si="16">SIN(A14)</f>
         <v>0.67533960823091643</v>
       </c>
       <c r="C14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.62516241519326632</v>
       </c>
       <c r="D14">
-        <f t="shared" si="14"/>
-        <v>0.58522897795461815</v>
+        <f t="shared" si="4"/>
+        <v>0.81086808012289713</v>
       </c>
       <c r="E14">
-        <f t="shared" si="14"/>
-        <v>0.55239026954057002</v>
+        <f t="shared" si="16"/>
+        <v>0.72488544128135668</v>
       </c>
       <c r="F14">
-        <f t="shared" si="14"/>
-        <v>0.52472349723102085</v>
+        <f t="shared" si="16"/>
+        <v>0.66304969117745616</v>
       </c>
       <c r="G14">
-        <f t="shared" si="14"/>
-        <v>0.50097372105110938</v>
+        <f t="shared" si="5"/>
+        <v>0.78811874363710266</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -776,32 +776,79 @@
         <v>0.73750689051324281</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:G15" si="15">SIN(A15)</f>
+        <f t="shared" ref="B15:F15" si="17">SIN(A15)</f>
         <v>0.67244473501677027</v>
       </c>
       <c r="C15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.62290036566958984</v>
       </c>
       <c r="D15">
-        <f t="shared" si="15"/>
-        <v>0.58339325849536761</v>
+        <f t="shared" si="4"/>
+        <v>0.81218982137315487</v>
       </c>
       <c r="E15">
-        <f t="shared" si="15"/>
-        <v>0.55085911031143953</v>
+        <f t="shared" si="17"/>
+        <v>0.72579531497581273</v>
       </c>
       <c r="F15">
-        <f t="shared" si="15"/>
-        <v>0.52341944855821276</v>
+        <f t="shared" si="17"/>
+        <v>0.66373052567510638</v>
       </c>
       <c r="G15">
-        <f t="shared" si="15"/>
-        <v>0.49984469018898553</v>
+        <f t="shared" si="5"/>
+        <v>0.78769949156025387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>